--- a/songs.xlsx
+++ b/songs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigocasale/Documents/projectos/python/playlist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigocasale/Documents/projectos/python/Setlist Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BFE6A9-AC15-6946-8A94-99DB2B4611D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC196A0-8718-7E4F-A18E-25EF5582D542}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12560" windowHeight="18000" xr2:uid="{60C335EA-29B0-9640-ACF8-2112CB08BD10}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12560" windowHeight="17540" xr2:uid="{60C335EA-29B0-9640-ACF8-2112CB08BD10}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigocasale/Documents/projectos/python/Setlist Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC196A0-8718-7E4F-A18E-25EF5582D542}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B897E0-2E2A-B648-B010-74CE961EC2E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="12560" windowHeight="17540" xr2:uid="{60C335EA-29B0-9640-ACF8-2112CB08BD10}"/>
   </bookViews>
@@ -30,16 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
-  <si>
-    <t>Artista</t>
-  </si>
-  <si>
-    <t>Cancion</t>
-  </si>
-  <si>
-    <t>Genero</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Weezer</t>
   </si>
@@ -134,10 +125,13 @@
     <t>Dance And Dense Denso</t>
   </si>
   <si>
-    <t>coño</t>
-  </si>
-  <si>
-    <t>mickey</t>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>Song</t>
+  </si>
+  <si>
+    <t>Genre</t>
   </si>
 </sst>
 </file>
@@ -535,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11280BC8-343E-AB48-A5E8-3CB1BDAAA1AC}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,164 +544,156 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigocasale/Documents/projectos/python/Setlist Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B897E0-2E2A-B648-B010-74CE961EC2E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A153A21-A3E7-F342-963B-C0892C0B222B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12560" windowHeight="17540" xr2:uid="{60C335EA-29B0-9640-ACF8-2112CB08BD10}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{60C335EA-29B0-9640-ACF8-2112CB08BD10}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Weezer</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Genre</t>
+  </si>
+  <si>
+    <t>Surf</t>
   </si>
 </sst>
 </file>
@@ -532,7 +535,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,7 +598,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -609,7 +612,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigocasale/Documents/projectos/python/Setlist Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A153A21-A3E7-F342-963B-C0892C0B222B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E887356-B2E8-9D47-86A6-82B25C294861}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{60C335EA-29B0-9640-ACF8-2112CB08BD10}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Weezer</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>Surf</t>
+  </si>
+  <si>
+    <t>Luis Miguel</t>
+  </si>
+  <si>
+    <t>Suave</t>
+  </si>
+  <si>
+    <t>Exitos</t>
   </si>
 </sst>
 </file>
@@ -532,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11280BC8-343E-AB48-A5E8-3CB1BDAAA1AC}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,6 +708,20 @@
         <v>18</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
